--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/C226231/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DBEFA1-2B49-054C-8F11-B07EA5CA2D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4D035E-FD5F-AB4A-A302-F446716AD7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="4" xr2:uid="{D1C953BA-2158-374A-9CBE-7AC5A2947E32}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{D1C953BA-2158-374A-9CBE-7AC5A2947E32}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Project" sheetId="2" r:id="rId2"/>
-    <sheet name="Roles &amp; Responsibilities" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="Project" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,524 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="208">
-  <si>
-    <r>
-      <t>Problem Statement:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Current user interfaces in digital environments can be clunky and unintuitive. Users may struggle to interact naturally with digital objects and receive personalized experiences. Our goal is to use AI to make interactions smoother and tailor experiences to individual users' preferences.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Objective:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Develop AI-driven solutions to improve user interaction and personalization in digital environments, leveraging computer vision, natural language processing (NLP), and machine learning (ML).</t>
-    </r>
-  </si>
-  <si>
-    <t>Detailed Explanation:</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Problem Statement:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Users often find digital environments challenging to navigate and interact with. The lack of natural interaction and personalized content can decrease engagement and satisfaction.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2. Objective:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> To address these issues, we aim to develop AI solutions that:</t>
-    </r>
-  </si>
-  <si>
-    <t>Improve natural interactions through computer vision and NLP.</t>
-  </si>
-  <si>
-    <t>Personalize user experiences using machine learning.</t>
-  </si>
-  <si>
-    <t>Enhance the overall functionality and user satisfaction.</t>
-  </si>
-  <si>
-    <t>3. Approaches:</t>
-  </si>
-  <si>
-    <r>
-      <t>Computer Vision:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Use computer vision to enable real-time object detection and scene understanding, allowing the digital environment to recognize and interact with real-world objects.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NLP:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Implement NLP to process and understand voice commands, enabling natural language interactions between users and the digital system.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Machine Learning:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Use ML algorithms to analyze user behavior and preferences, providing personalized content and recommendations.</t>
-    </r>
-  </si>
-  <si>
-    <t>4. Techniques for Model Building:</t>
-  </si>
-  <si>
-    <t>Computer Vision:</t>
-  </si>
-  <si>
-    <r>
-      <t>Model:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Convolutional Neural Networks (CNNs) for object detection.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Training:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Use labeled datasets of various objects.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Example:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Using a dataset of household items to train the model to recognize these items in the digital environment.</t>
-    </r>
-  </si>
-  <si>
-    <t>NLP:</t>
-  </si>
-  <si>
-    <r>
-      <t>Model:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Recurrent Neural Networks (RNNs) or Transformers for understanding and generating natural language.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Training:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Use datasets of spoken commands and their corresponding actions.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Example:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Using a dataset of voice commands like "open menu," "select item," to train the model to respond to these commands in the digital environment.</t>
-    </r>
-  </si>
-  <si>
-    <t>Machine Learning:</t>
-  </si>
-  <si>
-    <r>
-      <t>Model:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Collaborative Filtering or Content-Based Filtering for personalization.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Training:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Use user interaction data to identify patterns and preferences.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Example:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Analyzing user interaction history to recommend new digital experiences or content.</t>
-    </r>
-  </si>
-  <si>
-    <t>5. Model Training and Retraining:</t>
-  </si>
-  <si>
-    <t>Training:</t>
-  </si>
-  <si>
-    <t>Collect relevant datasets (images, voice commands, user interactions).</t>
-  </si>
-  <si>
-    <t>Preprocess data (resize images, normalize text, clean interaction logs).</t>
-  </si>
-  <si>
-    <t>Split data into training and validation sets.</t>
-  </si>
-  <si>
-    <t>Train models using frameworks like TensorFlow or PyTorch.</t>
-  </si>
-  <si>
-    <t>Retraining:</t>
-  </si>
-  <si>
-    <t>Continuously collect new data from user interactions.</t>
-  </si>
-  <si>
-    <t>Periodically retrain models with the updated dataset to improve accuracy and relevance.</t>
-  </si>
-  <si>
-    <t>6. Model Evaluation:</t>
-  </si>
-  <si>
-    <t>Metrics:</t>
-  </si>
-  <si>
-    <r>
-      <t>Computer Vision:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Accuracy, Precision, Recall, and F1-Score for object detection.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NLP:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> BLEU score, ROUGE score, and Word Error Rate for language understanding.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ML:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Mean Absolute Error (MAE), Root Mean Squared Error (RMSE) for recommendation accuracy.</t>
-    </r>
-  </si>
-  <si>
-    <t>Examples:</t>
-  </si>
-  <si>
-    <t>For computer vision, evaluate how accurately the model identifies objects in various environments.</t>
-  </si>
-  <si>
-    <t>For NLP, test the model's understanding of different voice commands.</t>
-  </si>
-  <si>
-    <t>For ML, assess the relevance of recommendations made to users.</t>
-  </si>
-  <si>
-    <t>7. Performance Monitoring:</t>
-  </si>
-  <si>
-    <t>Monitor model performance in real-time within the digital environment.</t>
-  </si>
-  <si>
-    <t>Collect feedback from users to identify any issues or areas for improvement.</t>
-  </si>
-  <si>
-    <t>Use tools like TensorBoard to visualize model performance metrics.</t>
-  </si>
-  <si>
-    <t>8. Deployment on Cloud Platform:</t>
-  </si>
-  <si>
-    <r>
-      <t>Platform:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> AWS, Azure, or Google Cloud.</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="110">
   <si>
     <t>Steps:</t>
   </si>
   <si>
-    <t>Containerize the AI models using Docker.</t>
-  </si>
-  <si>
-    <t>Deploy containers on Kubernetes for scalable management.</t>
-  </si>
-  <si>
-    <t>Use cloud services like AWS SageMaker, Azure ML, or Google AI Platform for model serving.</t>
-  </si>
-  <si>
-    <t>Example:</t>
-  </si>
-  <si>
-    <t>Deploy the computer vision model on AWS SageMaker to handle real-time object detection in the digital environment.</t>
-  </si>
-  <si>
-    <t>9. Data Collection and Preprocessing:</t>
-  </si>
-  <si>
-    <t>Data Collection:</t>
-  </si>
-  <si>
-    <t>Use cameras and sensors in digital devices to capture images and videos.</t>
-  </si>
-  <si>
-    <t>Record voice commands through microphones.</t>
-  </si>
-  <si>
-    <t>Collect user interaction logs from digital applications.</t>
-  </si>
-  <si>
-    <t>Preprocessing:</t>
-  </si>
-  <si>
-    <r>
-      <t>NLP:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Tokenize text, remove stopwords, handle punctuation.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ML:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Clean and normalize user interaction data, handle missing values.</t>
-    </r>
-  </si>
-  <si>
-    <t>Practical Example:</t>
-  </si>
-  <si>
-    <t>Imagine a user is interacting with a digital application to design a room. Using computer vision, the AI model recognizes furniture pieces in the user's real environment and suggests virtual furniture that matches the style. The user can then use voice commands to place items in the virtual room. The ML model analyzes past design choices and recommends new decor items that align with the user's preferences.</t>
-  </si>
-  <si>
-    <t>In summary, this project aims to enhance digital environments by integrating advanced AI techniques, resulting in a more natural, responsive, and personalized user experience.</t>
-  </si>
-  <si>
-    <t>4o</t>
-  </si>
-  <si>
-    <t>Analyze credit score distributions to identify untapped market segments.</t>
-  </si>
-  <si>
-    <t>Recommend changes to credit policies based on insights from the model.</t>
-  </si>
-  <si>
-    <t>Optimize lending strategies using model insights to achieve budget targets.</t>
-  </si>
-  <si>
-    <t>Prepare and present reports highlighting model performance and business impact.</t>
-  </si>
-  <si>
-    <t>Monitor loan portfolio health continuously using model insights.</t>
-  </si>
-  <si>
-    <t>Analyze trends to pinpoint high-performing and underperforming segments.</t>
-  </si>
-  <si>
-    <t>Develop actionable recommendations based on model outputs.</t>
-  </si>
-  <si>
-    <t>Collaborate on initiatives to improve business performance using data insights.</t>
-  </si>
-  <si>
-    <t>Perform in-depth data analysis to uncover trends and insights.</t>
-  </si>
-  <si>
-    <t>Work with teams to set and track key performance metrics.</t>
-  </si>
-  <si>
-    <t>Develop and validate data pipelines for automated dashboards.</t>
-  </si>
-  <si>
-    <t>Collaborate on defining problems and creating solution frameworks.</t>
-  </si>
-  <si>
-    <t>Conduct A/B tests to evaluate model performance and identify target segments.</t>
-  </si>
-  <si>
-    <t>Lead the deployment of models into production environments.</t>
-  </si>
-  <si>
-    <t>Identify high-risk segments and develop targeted retention strategies.</t>
-  </si>
-  <si>
-    <t>Provide insights on churn trends and retention strategies to decision-makers.</t>
-  </si>
-  <si>
-    <t>Analyze customer segments to find growth opportunities and address retention issues.</t>
-  </si>
-  <si>
     <t>The goal is to develop a robust Credit Scoring Model to predict the likelihood of a borrower defaulting on a loan. This model will help the financial institution in making informed decisions regarding loan approvals, thereby minimizing risk and maximizing profitability.</t>
   </si>
   <si>
@@ -1192,51 +676,6 @@
   </si>
   <si>
     <t>command + option + R</t>
-  </si>
-  <si>
-    <t>I create small AI projects to show clients how our solutions can work for them. This involves building and testing these projects and then improving them based on feedback.</t>
-  </si>
-  <si>
-    <t> I demonstrate how AI tools can help rewrite and document old code into newer languages, making it more efficient and easier to work with.</t>
-  </si>
-  <si>
-    <t> I write detailed guides on how our AI solutions are designed and implemented. I also create best practices and mentor new team members, helping them get up to speed.</t>
-  </si>
-  <si>
-    <t> I keep myself updated with the latest trends in AI and evaluate new tools and technologies to see if they can improve our current solutions.</t>
-  </si>
-  <si>
-    <t> I am proficient in programming languages, especially Python, and have experience with various AI frameworks like TensorFlow and PyTorch.</t>
-  </si>
-  <si>
-    <t>I am also familiar with cloud platforms like AWS and Azure and have experience with older programming languages like COBOL and newer ones like JAVA.</t>
-  </si>
-  <si>
-    <t>I have excellent communication skills and can work well with others. I engage with stakeholders to understand and implement their requirements and am committed to continuous learning.</t>
-  </si>
-  <si>
-    <t>I understand clients' business processes and challenges and continuously strive to find solutions.</t>
-  </si>
-  <si>
-    <t>I have contributed to scientific publications and open-source communities and have managed AI projects from research to deployment in production environments.</t>
-  </si>
-  <si>
-    <t>I have experience with AI or data governance and am familiar with Agile development methodologies.</t>
-  </si>
-  <si>
-    <t>I have worked on projects involving natural language processing (NLP) and text analytics.</t>
-  </si>
-  <si>
-    <t>I have proven experience in creating and delivering AI solutions, especially with foundation models and large language models.</t>
-  </si>
-  <si>
-    <t> I developed a tool that automatically converts old COBOL code to modern JAVA code using AI. This significantly reduces manual effort and makes the code easier to maintain.</t>
-  </si>
-  <si>
-    <t> I designed and deployed a chatbot that can handle customer queries using large language models. This chatbot provides accurate and timely responses, enhancing customer satisfaction.</t>
-  </si>
-  <si>
-    <t>I created an AI solution that processes and analyzes large volumes of text documents to extract meaningful insights. This helps businesses make data-driven decisions.</t>
   </si>
   <si>
     <r>
@@ -1688,7 +1127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1699,14 +1138,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.5"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -1729,12 +1160,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -1779,36 +1204,38 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2142,363 +1569,381 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91E7353-D74F-4B47-A3EB-AF0549FFCDA0}">
-  <dimension ref="B2:B72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D78C8D-0111-B24D-B5BD-0D148A193789}">
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView zoomScale="143" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="69.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="71.33203125" customWidth="1"/>
+    <col min="1" max="1" width="42.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="59.5" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="39" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
+    <row r="23" spans="2:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+    <row r="36" spans="2:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+    <row r="50" spans="2:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
+    <row r="69" spans="2:2" ht="26" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B52" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B54" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B56" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B62" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B63" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" ht="102" x14ac:dyDescent="0.2">
-      <c r="B69" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="B70" s="2" t="s">
-        <v>65</v>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B72" s="2" t="s">
-        <v>66</v>
+      <c r="B71" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2507,902 +1952,319 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D78C8D-0111-B24D-B5BD-0D148A193789}">
-  <dimension ref="A1:B72"/>
-  <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="42.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="59.5" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="39" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="26" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="26" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="26" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="26" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" ht="26" x14ac:dyDescent="0.2">
-      <c r="B30" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" ht="26" x14ac:dyDescent="0.2">
-      <c r="B31" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="26" x14ac:dyDescent="0.2">
-      <c r="B33" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" ht="26" x14ac:dyDescent="0.2">
-      <c r="B36" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" ht="26" x14ac:dyDescent="0.2">
-      <c r="B40" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="26" x14ac:dyDescent="0.2">
-      <c r="B41" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" ht="26" x14ac:dyDescent="0.2">
-      <c r="B47" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="26" x14ac:dyDescent="0.2">
-      <c r="B50" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" ht="26" x14ac:dyDescent="0.2">
-      <c r="B52" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" ht="26" x14ac:dyDescent="0.2">
-      <c r="B69" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B72" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5560BEC-8557-BC4F-88E8-97334B4CAF76}">
-  <dimension ref="B2:B18"/>
-  <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="75.6640625" customWidth="1"/>
-    <col min="2" max="2" width="71.5" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F0C9E2-54A6-4C4B-9897-AD31D045BC24}">
-  <dimension ref="B2:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="73.5" customWidth="1"/>
-    <col min="2" max="2" width="76.5" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B13" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B16" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4DC443-E929-7649-8F59-19EC319155D4}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="81.33203125" customWidth="1"/>
-    <col min="2" max="2" width="81.83203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="81.83203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>184</v>
+      <c r="B1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="9" t="s">
-        <v>87</v>
+      <c r="B14" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12" t="s">
-        <v>193</v>
+      <c r="A15" s="9"/>
+      <c r="B15" s="11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12" t="s">
-        <v>194</v>
+      <c r="A16" s="9"/>
+      <c r="B16" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12" t="s">
-        <v>195</v>
+      <c r="A17" s="9"/>
+      <c r="B17" s="11" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12" t="s">
-        <v>197</v>
+      <c r="A18" s="9"/>
+      <c r="B18" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12" t="s">
-        <v>196</v>
+      <c r="A19" s="9"/>
+      <c r="B19" s="11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B20" s="9" t="s">
-        <v>207</v>
+      <c r="B20" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="12" t="s">
-        <v>198</v>
+      <c r="B21" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="12" t="s">
-        <v>49</v>
+      <c r="B22" s="11" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B23"/>
+      <c r="B23" s="12"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="12" t="s">
-        <v>199</v>
+      <c r="B24" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="12" t="s">
-        <v>200</v>
+      <c r="B25" s="11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="12" t="s">
-        <v>201</v>
+      <c r="B26" s="11" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="12" t="s">
-        <v>202</v>
+      <c r="B27" s="11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B28" s="9" t="s">
-        <v>206</v>
+      <c r="B28" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="12" t="s">
-        <v>203</v>
+      <c r="B29" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B30"/>
+      <c r="B30" s="12"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="12" t="s">
-        <v>204</v>
+      <c r="B31" s="11" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="12" t="s">
-        <v>205</v>
+      <c r="B32" s="11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B33" s="9" t="s">
-        <v>101</v>
+      <c r="B33" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B34" s="11" t="s">
-        <v>172</v>
+      <c r="B34" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B35" s="10" t="s">
-        <v>102</v>
+      <c r="B35" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B36" s="11" t="s">
-        <v>173</v>
+      <c r="B36" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B37" s="10" t="s">
-        <v>103</v>
+      <c r="B37" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B38" s="10" t="s">
-        <v>104</v>
+      <c r="B38" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B39" s="11" t="s">
-        <v>174</v>
+      <c r="B39" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B40" s="10" t="s">
-        <v>105</v>
+      <c r="B40" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B41" s="9" t="s">
-        <v>106</v>
+      <c r="B41" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B42" s="11" t="s">
-        <v>175</v>
+      <c r="B42" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B43" s="10" t="s">
-        <v>107</v>
+      <c r="B43" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B44" s="10" t="s">
-        <v>108</v>
+      <c r="B44" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B45" s="11" t="s">
-        <v>176</v>
+      <c r="B45" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B46" s="10" t="s">
-        <v>109</v>
+      <c r="B46" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B47" s="10" t="s">
-        <v>110</v>
+      <c r="B47" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B48" s="11" t="s">
-        <v>177</v>
+      <c r="B48" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B49" s="10" t="s">
-        <v>111</v>
+      <c r="B49" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B50" s="10" t="s">
-        <v>112</v>
+      <c r="B50" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B51" s="9" t="s">
-        <v>113</v>
+      <c r="B51" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B52" s="11" t="s">
-        <v>178</v>
+      <c r="B52" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B53" s="10" t="s">
-        <v>114</v>
+      <c r="B53" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B54" s="10" t="s">
-        <v>115</v>
+      <c r="B54" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B55" s="11" t="s">
-        <v>179</v>
+      <c r="B55" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B56" s="10" t="s">
-        <v>116</v>
+      <c r="B56" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B57" s="10" t="s">
-        <v>117</v>
+      <c r="B57" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B58" s="11" t="s">
-        <v>180</v>
+      <c r="B58" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B59" s="11" t="s">
-        <v>181</v>
+      <c r="B59" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B60" s="11" t="s">
-        <v>182</v>
+      <c r="B60" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
